--- a/regionseng/5/standard of living/incomes.xlsx
+++ b/regionseng/5/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -324,6 +324,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -338,16 +350,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -661,35 +676,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="12">
         <v>2011</v>
@@ -724,8 +742,14 @@
       <c r="L2" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -759,11 +783,17 @@
       <c r="K3" s="4">
         <v>43.686469425813421</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="4">
         <v>49.66742168935766</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="17">
+        <v>64.817827462666216</v>
+      </c>
+      <c r="N3" s="26">
+        <v>68.918183579106156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -797,11 +827,17 @@
       <c r="K4" s="4">
         <v>37.039618781583549</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="4">
         <v>43.302405159352475</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="17">
+        <v>58.203919715981755</v>
+      </c>
+      <c r="N4" s="26">
+        <v>62.452913245008617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -835,11 +871,17 @@
       <c r="K5" s="5">
         <v>11.770798661729813</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="5">
         <v>15.679726133185703</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="18">
+        <v>18.604001099236172</v>
+      </c>
+      <c r="N5" s="27">
+        <v>19.306195541517255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -873,11 +915,17 @@
       <c r="K6" s="5">
         <v>2.6219624720891317</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="5">
         <v>2.639670144894918</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="18">
+        <v>2.8572047231801356</v>
+      </c>
+      <c r="N6" s="27">
+        <v>4.1959472222518919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
@@ -911,11 +959,17 @@
       <c r="K7" s="5">
         <v>10.018780614414947</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="5">
         <v>9.1333836166775058</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="18">
+        <v>16.776319296697679</v>
+      </c>
+      <c r="N7" s="27">
+        <v>16.136109111093045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -949,11 +1003,17 @@
       <c r="K8" s="5">
         <v>0.10215430297851562</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="5">
         <v>0.19095133618672686</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="18">
+        <v>0.14360136330922443</v>
+      </c>
+      <c r="N8" s="27">
+        <v>7.9652032438913972E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -987,11 +1047,17 @@
       <c r="K9" s="5">
         <v>9.0431405169404329</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="5">
         <v>9.9177796937185914</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="18">
+        <v>11.560132935131074</v>
+      </c>
+      <c r="N9" s="27">
+        <v>14.027290673611322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -1025,11 +1091,17 @@
       <c r="K10" s="5">
         <v>1.4936032118479414</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="5">
         <v>2.4793261157843269</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="18">
+        <v>4.3752198342831923</v>
+      </c>
+      <c r="N10" s="27">
+        <v>4.173686670209249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
@@ -1063,11 +1135,17 @@
       <c r="K11" s="5">
         <v>1.9891790015827626</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="5">
         <v>3.2615681189046994</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="18">
+        <v>3.8874404641442717</v>
+      </c>
+      <c r="N11" s="27">
+        <v>4.5340319938869449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -1101,11 +1179,17 @@
       <c r="K12" s="4">
         <v>6.6468506442298665</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="4">
         <v>6.365016530005188</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="17">
+        <v>6.6139077466844727</v>
+      </c>
+      <c r="N12" s="26">
+        <v>6.465270334097541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
@@ -1139,11 +1223,17 @@
       <c r="K13" s="4">
         <v>9.5774479946231867</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="4">
         <v>9.4113364296086637</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="17">
+        <v>13.407334460446041</v>
+      </c>
+      <c r="N13" s="26">
+        <v>11.816839270050686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>6</v>
       </c>
@@ -1177,11 +1267,17 @@
       <c r="K14" s="5">
         <v>0.21261371294657389</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="5">
         <v>0.36636916281382242</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="18">
+        <v>0.54753189964294435</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0.309576379776001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1215,11 +1311,17 @@
       <c r="K15" s="5">
         <v>9.3648342816766128</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="5">
         <v>9.044967266794842</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="18">
+        <v>12.859802560803095</v>
+      </c>
+      <c r="N15" s="27">
+        <v>11.507262890274685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
@@ -1253,11 +1355,17 @@
       <c r="K16" s="4">
         <v>46.617066776206734</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="4">
         <v>52.713741588961149</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="17">
+        <v>71.611254176427778</v>
+      </c>
+      <c r="N16" s="26">
+        <v>74.269752515059324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
@@ -1291,11 +1399,17 @@
       <c r="K17" s="6">
         <v>53.263917420436584</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="6">
         <v>59.078758118966327</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="19">
+        <v>78.225161923112253</v>
+      </c>
+      <c r="N17" s="28">
+        <v>80.735022849156863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1306,7 +1420,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1317,23 +1431,25 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="12">
         <v>2011</v>
@@ -1368,8 +1484,14 @@
       <c r="L21" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
@@ -1403,11 +1525,17 @@
       <c r="K22" s="8">
         <v>1128.1485206972336</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="8">
         <v>1245.3242026298572</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="20">
+        <v>1613.6747939203099</v>
+      </c>
+      <c r="N22" s="29">
+        <v>1684.3421929771373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
@@ -1441,11 +1569,17 @@
       <c r="K23" s="8">
         <v>956.50190287389967</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="8">
         <v>1085.73248505429</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="17">
+        <v>1449.0179913410152</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1526.3326946533118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="15" t="s">
         <v>0</v>
       </c>
@@ -1479,11 +1613,17 @@
       <c r="K24" s="9">
         <v>303.96617699229915</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="9">
         <v>393.14185798470731</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="18">
+        <v>463.15664709982042</v>
+      </c>
+      <c r="N24" s="27">
+        <v>471.83831679369911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="15" t="s">
         <v>1</v>
       </c>
@@ -1517,11 +1657,17 @@
       <c r="K25" s="9">
         <v>67.708906741344933</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="9">
         <v>66.185137190269501</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="18">
+        <v>71.131653487174574</v>
+      </c>
+      <c r="N25" s="27">
+        <v>102.54784120698585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
@@ -1555,11 +1701,17 @@
       <c r="K26" s="9">
         <v>258.72249870262658</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="9">
         <v>229.00370671322071</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="18">
+        <v>417.6555223087754</v>
+      </c>
+      <c r="N26" s="27">
+        <v>394.36224222451159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
@@ -1593,11 +1745,17 @@
       <c r="K27" s="9">
         <v>2.6380073121673102</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="9">
         <v>4.7877725959911173</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="18">
+        <v>3.5750334347160551</v>
+      </c>
+      <c r="N27" s="27">
+        <v>1.9466746223694722</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
@@ -1631,11 +1789,17 @@
       <c r="K28" s="9">
         <v>233.52781148790703</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="9">
         <v>248.67107389198617</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="18">
+        <v>287.79574789873243</v>
+      </c>
+      <c r="N28" s="27">
+        <v>342.82327693095402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
@@ -1669,11 +1833,17 @@
       <c r="K29" s="9">
         <v>38.570437851845668</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="9">
         <v>62.164789577955425</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="18">
+        <v>108.9234588818872</v>
+      </c>
+      <c r="N29" s="27">
+        <v>102.00379919808191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
@@ -1707,11 +1877,17 @@
       <c r="K30" s="9">
         <v>51.36806378570865</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="9">
         <v>81.778147100159813</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="18">
+        <v>96.779928229909316</v>
+      </c>
+      <c r="N30" s="27">
+        <v>110.81054367670964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="14" t="s">
         <v>10</v>
       </c>
@@ -1745,11 +1921,17 @@
       <c r="K31" s="8">
         <v>171.64661782333448</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="8">
         <v>159.59171757556723</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="17">
+        <v>164.65680257929455</v>
+      </c>
+      <c r="N31" s="26">
+        <v>158.0094983238256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="14" t="s">
         <v>11</v>
       </c>
@@ -1783,11 +1965,17 @@
       <c r="K32" s="8">
         <v>247.325634897942</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="8">
         <v>235.97288999994615</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="17">
+        <v>333.78282672220553</v>
+      </c>
+      <c r="N32" s="26">
+        <v>288.80042880598597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="15" t="s">
         <v>6</v>
       </c>
@@ -1821,11 +2009,17 @@
       <c r="K33" s="9">
         <v>5.4904836415756577</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="9">
         <v>9.1860694602364088</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="18">
+        <v>13.631102119706565</v>
+      </c>
+      <c r="N33" s="27">
+        <v>7.5659649068858315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="15" t="s">
         <v>7</v>
       </c>
@@ -1859,11 +2053,17 @@
       <c r="K34" s="9">
         <v>241.83515125636637</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="9">
         <v>226.78682053970979</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="18">
+        <v>320.15172460249897</v>
+      </c>
+      <c r="N34" s="27">
+        <v>281.23446389910015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="14" t="s">
         <v>12</v>
       </c>
@@ -1897,11 +2097,17 @@
       <c r="K35" s="8">
         <v>1203.8275377718414</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="8">
         <v>1321.7053750542361</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="17">
+        <v>1782.8008180632207</v>
+      </c>
+      <c r="N35" s="26">
+        <v>1815.1331234592976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="16" t="s">
         <v>13</v>
       </c>
@@ -1935,11 +2141,17 @@
       <c r="K36" s="10">
         <v>1375.4741555951757</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="10">
         <v>1481.2970926298033</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="19">
+        <v>1947.4576206425152</v>
+      </c>
+      <c r="N36" s="28">
+        <v>1973.1426217831229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1950,7 +2162,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:14">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1961,23 +2173,25 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:14" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="12">
         <v>2011</v>
@@ -2012,8 +2226,14 @@
       <c r="L40" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>8</v>
       </c>
@@ -2047,11 +2267,17 @@
       <c r="K41" s="8">
         <v>287.1955828240678</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="8">
         <v>328.68388114191924</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="17">
+        <v>436.96626408540067</v>
+      </c>
+      <c r="N41" s="26">
+        <v>476.25526032972664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
@@ -2085,11 +2311,17 @@
       <c r="K42" s="8">
         <v>243.49907519129098</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="8">
         <v>286.56213885178443</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="17">
+        <v>392.37892334586689</v>
+      </c>
+      <c r="N42" s="26">
+        <v>431.5773706036664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>0</v>
       </c>
@@ -2123,11 +2355,17 @@
       <c r="K43" s="9">
         <v>77.381427851497932</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="9">
         <v>103.76365563993313</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="18">
+        <v>125.41797797922561</v>
+      </c>
+      <c r="N43" s="27">
+        <v>133.41438653919272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>1</v>
       </c>
@@ -2161,11 +2399,17 @@
       <c r="K44" s="9">
         <v>17.236825273628785</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="9">
         <v>17.468533671527787</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="18">
+        <v>19.261708120876122</v>
+      </c>
+      <c r="N44" s="27">
+        <v>28.995859044509167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>2</v>
       </c>
@@ -2199,11 +2443,17 @@
       <c r="K45" s="9">
         <v>65.863631819219734</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="9">
         <v>60.441953155197226</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="18">
+        <v>113.09674907577133</v>
+      </c>
+      <c r="N45" s="27">
+        <v>111.50768122888132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>14</v>
       </c>
@@ -2237,11 +2487,17 @@
       <c r="K46" s="9">
         <v>0.67156410136832545</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="9">
         <v>1.2636578294648435</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="18">
+        <v>0.96808167905572384</v>
+      </c>
+      <c r="N46" s="27">
+        <v>0.55043092366827018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2275,11 +2531,17 @@
       <c r="K47" s="9">
         <v>59.449757452545455</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="9">
         <v>65.632847672872629</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="18">
+        <v>77.932079780124099</v>
+      </c>
+      <c r="N47" s="27">
+        <v>96.934809139497503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>4</v>
       </c>
@@ -2313,11 +2575,17 @@
       <c r="K48" s="9">
         <v>9.8189725691384897</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="9">
         <v>16.4074256853789</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="18">
+        <v>29.495333928620866</v>
+      </c>
+      <c r="N48" s="27">
+        <v>28.842028742293163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>5</v>
       </c>
@@ -2351,11 +2619,17 @@
       <c r="K49" s="9">
         <v>13.0768961238923</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L49" s="9">
         <v>21.584065197409885</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="18">
+        <v>26.206992782193211</v>
+      </c>
+      <c r="N49" s="27">
+        <v>31.332174985624341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>10</v>
       </c>
@@ -2389,11 +2663,17 @@
       <c r="K50" s="8">
         <v>43.696507632776836</v>
       </c>
-      <c r="L50" s="21">
+      <c r="L50" s="8">
         <v>42.121742290134819</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="17">
+        <v>44.587340739533708</v>
+      </c>
+      <c r="N50" s="26">
+        <v>44.677889726060286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>11</v>
       </c>
@@ -2427,11 +2707,17 @@
       <c r="K51" s="8">
         <v>62.962303773573744</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L51" s="8">
         <v>62.281360280051082</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="17">
+        <v>90.384899955170013</v>
+      </c>
+      <c r="N51" s="26">
+        <v>81.659608111591467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>6</v>
       </c>
@@ -2465,11 +2751,17 @@
       <c r="K52" s="9">
         <v>1.3977261153999383</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="9">
         <v>2.4245196200745291</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="18">
+        <v>3.6911599481232975</v>
+      </c>
+      <c r="N52" s="27">
+        <v>2.1393102906277424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>7</v>
       </c>
@@ -2503,11 +2795,17 @@
       <c r="K53" s="9">
         <v>61.564577658173803</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="9">
         <v>59.856840659976555</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="18">
+        <v>86.693740007046713</v>
+      </c>
+      <c r="N53" s="27">
+        <v>79.520297820963719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>12</v>
       </c>
@@ -2541,11 +2839,17 @@
       <c r="K54" s="8">
         <v>306.46137896486476</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="8">
         <v>348.84349913183553</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="17">
+        <v>482.76382330103689</v>
+      </c>
+      <c r="N54" s="26">
+        <v>513.23697871525803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>13</v>
       </c>
@@ -2579,66 +2883,78 @@
       <c r="K55" s="10">
         <v>350.15788659764166</v>
       </c>
-      <c r="L55" s="23">
+      <c r="L55" s="10">
         <v>390.96524142197035</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
-      <c r="A56" s="18" t="s">
+      <c r="M55" s="19">
+        <v>527.35116404057067</v>
+      </c>
+      <c r="N55" s="28">
+        <v>557.91486844131828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="19" t="s">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A39:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
